--- a/src/attributions/attributions_ig_traj_393.xlsx
+++ b/src/attributions/attributions_ig_traj_393.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6215977470000327</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>-0.2863100128990544</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1286918286541055</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2133201334348536</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06153629160740444</v>
+        <v>0.04755082793705591</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,22 +1031,22 @@
         <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4278742834785943</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.1451708320753986</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.08264486672152406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.1966209931567867</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.185683434614806</v>
+        <v>0.06432243057455955</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05515371462953381</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>-0.1186485803981984</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0714949498890206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.0250382155064337</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.3213924147787067</v>
+        <v>-0.0902748685655885</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,136 +1079,136 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.003994518136629903</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>-0.1873853927661147</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02773304512863293</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.04247295410310811</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.00599607433142838</v>
+        <v>0.002188345453412685</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1633185627511933</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.05531991834783755</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0489841896987319</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.1224489366093055</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1051207679653685</v>
+        <v>0.09385266564295786</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4903901812695971</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.3408634404953833</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1704964091624099</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0.09435780670925351</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.05283501026053779</v>
+        <v>-0.1357065060119933</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1196373362305318</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.02130735158760642</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.04083588398204928</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.10691692870379</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.002186152142888692</v>
+        <v>0.1115316512402055</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.06562031013514091</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.01989581221781007</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.06505907148576949</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04352387823875869</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.2145912263682243</v>
+        <v>-0.1491800744827627</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
@@ -1220,106 +1220,106 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.3474987516924824</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0.2242800595505715</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.08302722637751749</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.0250820416083286</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0348333335105484</v>
+        <v>-0.07801841424761749</v>
       </c>
       <c r="BZ2" t="n">
         <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.1936599506900169</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.1067566751486354</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.05377114799230733</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>-0.06873313534003245</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0500083646599812</v>
+        <v>0.03273939848186054</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.06222817100818474</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.02871274542388554</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.03134569891684594</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.01483522306845135</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.1520584959464914</v>
+        <v>0.1664153704993722</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.1780639568065937</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.1241482347839563</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.06206504820649542</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>-0.08542116980127948</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.04723591409485107</v>
+        <v>0.01513049569149055</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC2" t="n">
         <v>-0</v>
@@ -1328,73 +1328,73 @@
         <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.03169120643825415</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.08693634870318645</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.02558746976136989</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.0305434957559237</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03016483609097642</v>
+        <v>0.06706682701348791</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.03035406841100238</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.05598696861826048</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02434169012908833</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.07479269364563712</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001093124367805598</v>
+        <v>0.08710614611628299</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.001568811419292164</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.1661501300566568</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.00245395986767876</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.09942967034937744</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.08047838012627453</v>
+        <v>0.02354411980690037</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1403,28 +1403,28 @@
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.2561707445398855</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.06707359706974877</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.05996534822224466</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>-0.04410967305865</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.08086291815657738</v>
+        <v>-0.109145757026236</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1433,28 +1433,28 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0852532944183904</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.05829380938958553</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.04300556954009906</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.028652632231917</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.05414133911148086</v>
+        <v>0.006446421013648177</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
@@ -1463,103 +1463,103 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1733219836360349</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.1319830125206858</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.05158808851267909</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>-0.06122067637897982</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.02946940599192465</v>
+        <v>0.0213871901237652</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1776577940766398</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.01723630639689141</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.04556628333579421</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0.08307432167051079</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.09142019235976799</v>
+        <v>-0.002805362743190397</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.03747042885807114</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.0195540940660355</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.04260033233992714</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0.1688027560774409</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.07343797284023172</v>
+        <v>0.08341477322545131</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.1025830311320874</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>0.05687568459736464</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.04135103104508579</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.0537403941620035</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2120936852602351</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.07765375748675209</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0935212745349514</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02039311512330424</v>
+        <v>-0.03381584870234718</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.07293840965262915</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1597,109 +1597,109 @@
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1611887899846297</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.04986333522709423</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04076671511506651</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0494183858918914</v>
+        <v>-0.01966590730516112</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0.02977464002243693</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0115442587170143</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.005932941801855291</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.01333692513563561</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.08051110195570391</v>
+        <v>-0.01865602705222668</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.01695638192156892</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01468311504650999</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.0175034483195124</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.01341702241630987</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.03801791097878193</v>
+        <v>0.001165830608132391</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0.002820146082738788</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.04953829159827153</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.01276122348519129</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.01217159788173463</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0306077177354687</v>
+        <v>-0.01607088431089008</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.002190039033144834</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1708,130 +1708,130 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1315994277273993</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.0782453827328773</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.07722839817081434</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01676758926364225</v>
+        <v>-0.03665641400892343</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.03539139247904005</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.03751439058933138</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.02471757684158168</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.03486942182255752</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01569857920057285</v>
+        <v>-0.02063082673580439</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.04040413607848737</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.01031829347037468</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.03594746034721895</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0507067397820046</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.08099820558834681</v>
+        <v>0.01059732057885673</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.01969491415221181</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1151122805567514</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.03311572028107924</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.009799019084009113</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.02554551146069167</v>
+        <v>-0.01618496075657468</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.003593942604964062</v>
       </c>
       <c r="CA3" t="n">
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.06394179951981976</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.01193330113548456</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03164754468098632</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.003201566013997234</v>
+        <v>0.004076498108803852</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.02630448334107258</v>
       </c>
       <c r="CJ3" t="n">
         <v>-0</v>
@@ -1843,130 +1843,130 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.01265401758667484</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0.007219613809401402</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.01695189528109312</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.07478751881286154</v>
+        <v>0.0124288736427135</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>-0.006379334348473016</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.05627831699326507</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.007946609763574149</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.03384336178385206</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.01849048779142261</v>
+        <v>0.003721781562089488</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.02996893333205113</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.03192581698210036</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.01550332924764262</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.02025614231988516</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01684630045218488</v>
+        <v>0.03733762119967905</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0.003238897786757371</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.005972030576017744</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>0.003866800527031861</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01465032194662105</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.02872980433671438</v>
+        <v>0.01227749581872184</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.008743543908462322</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003517369828743366</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.03709168227646517</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.006376838525964415</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01756491238804228</v>
+        <v>0.0114343880215613</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.01330529770085764</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
@@ -1978,157 +1978,157 @@
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.09938179403797627</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.01578067291900693</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02958261111363511</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.002678049036979726</v>
+        <v>-0.008884210131924209</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.03240917963538711</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.04338398754631767</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>0.00745529700060979</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.04593541870672702</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.0008878451107020542</v>
+        <v>0.01605465986306014</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.008751549501735453</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.0581260423884065</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.007811115199668917</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.03029054496355502</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.009192938499388313</v>
+        <v>0.007912314425285161</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.03170382617256716</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.04474397665301998</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.0171695282290082</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.01332915200616406</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02520896105115495</v>
+        <v>0.00395739883748293</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.01381273725291675</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.007789584325054636</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.003794180299352322</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.006501584906607454</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.04198862887495337</v>
+        <v>-0.02278959392990534</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.0168766185852211</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.03562629905205517</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>0.002078161363450705</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.008308286979317334</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.003552692992910399</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
@@ -2137,111 +2137,111 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.639602932910858</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.4487608613302951</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.3121144184200223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03291773502005506</v>
+        <v>0.06709626703949123</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4077777936159587</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3415965408901365</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.2202270733415198</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.2601088863268491</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06177384662354456</v>
+        <v>0.01246026550237919</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1892072831285365</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1531943450808695</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0.1575451481189596</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.06274923858708903</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1035296471654994</v>
+        <v>0.01010989131183984</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1520327796308895</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02873261810241225</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0.1828961434636872</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.07959574710487569</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2224145599510805</v>
+        <v>0.003775698286657159</v>
       </c>
       <c r="AG4" t="n">
         <v>-0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.009860686695883048</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
@@ -2250,25 +2250,25 @@
         <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.1045866626101694</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0.1128029439136068</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0.09507113773672389</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1112661832682866</v>
+        <v>0.1042474452039632</v>
       </c>
       <c r="AP4" t="n">
         <v>-0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.005591474294721043</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
         <v>-0</v>
@@ -2277,52 +2277,52 @@
         <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.5644473585183422</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0.4841684191827451</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.2502529482308921</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.1828008885618053</v>
+        <v>0.02443177229480079</v>
       </c>
       <c r="AY4" t="n">
         <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.1362462863148537</v>
+        <v>-0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.237793396440667</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0.04318792240872891</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0.01434386656345922</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.00344179338952389</v>
+        <v>0.1235938994074157</v>
       </c>
       <c r="BH4" t="n">
         <v>-0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1391321979007933</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>-0</v>
@@ -2331,52 +2331,52 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1968597164128711</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.01524479988557212</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0.08765741320995507</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.01213942208564607</v>
+        <v>-0.2307984147900347</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.0174481416053325</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.3137620108302236</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0.1307325108404619</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0.138226562245303</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.0004827416091489339</v>
+        <v>0.000992649258570471</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1004044704107003</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.2173534208496735</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>0.1181884322446137</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0.0498124435082716</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.03158750578680192</v>
+        <v>0.02757625280601671</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.08474581504618248</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>-0</v>
@@ -2412,52 +2412,52 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1455344470339029</v>
+        <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.08896709215885598</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>0.1525824227985418</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.4437830019148564</v>
+        <v>0.09409265210455954</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.3009456253819746</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.2283064843630966</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>0.1416073852087246</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>-0.07466544061102198</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.05647296480647748</v>
+        <v>0.01872735986936323</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.09059001896762943</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2466,106 +2466,106 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.009009328891250024</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>0.004454563806707855</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0.01753472260803992</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.02228232574699433</v>
+        <v>-0.1233552557773027</v>
       </c>
       <c r="DJ4" t="n">
         <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.003863734744554642</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>-0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.1121701386845776</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>0.04254154429782545</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>0.1375610489135267</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.02657371438985862</v>
+        <v>0.06763706758389545</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.121796950180317</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.1709659612939472</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.1438760425319049</v>
       </c>
       <c r="DY4" t="n">
         <v>-0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>0.01665471145554629</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.1130212633678031</v>
+        <v>0.008791321453108108</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.06733277539427822</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.2170714669537047</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>0.07414747419270691</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0.1089494322251175</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.02268865665900554</v>
+        <v>-0.05041470911845977</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.03929532614261468</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -2574,25 +2574,25 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.03502708258609265</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>0.1961983791804812</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>0.05000938106430421</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2013839047003217</v>
+        <v>0.07261004878675251</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.1025011509960166</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>-0</v>
@@ -2601,97 +2601,97 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2533486236989025</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>0.1343226184457284</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0.0535727257066153</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0114552155561017</v>
+        <v>0.02479499576352044</v>
       </c>
       <c r="FC4" t="n">
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.07769266741801542</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
         <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.09073985262391611</v>
+        <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>0.09013273324045726</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0.103720978546834</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.1364890617936895</v>
+        <v>0.08195321812306716</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0.2383903436379578</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.07573821849707352</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>-0.005502177389175796</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0.1266948208756934</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0750009052321569</v>
+        <v>-0.004993330084177141</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.04126281177132929</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.1604627838933184</v>
+        <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>-0.009398322540494605</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0.1397099011775991</v>
       </c>
       <c r="GC4" t="n">
         <v>-0</v>
@@ -2700,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.07294466621998036</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
         <v>-0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
         <v>-0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
         <v>-0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
         <v>-0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
         <v>-0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG5" t="n">
         <v>-0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
         <v>-0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
         <v>-0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
         <v>-0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
         <v>-0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
         <v>-0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
         <v>-0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
         <v>-0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
         <v>-0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.09779678463455392</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004291087918868518</v>
+        <v>-0.02776977295578705</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.02707204351872733</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01654936834037236</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06610452824348084</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.04232297618606908</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3319,241 +3319,241 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.02387924020069192</v>
+        <v>-0.03163550927198414</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>-0.007603451732893487</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.005211948880739278</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04696664264667254</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.003369393069613341</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0007305722529891602</v>
+        <v>-0.01442950014909297</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.02614440514858042</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.005351208040748345</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.002745383035624299</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.0221382465548246</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00892632594692259</v>
+        <v>0.03534665982345181</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-0.0007498533250204586</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01692786897754444</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.01972407552202642</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.01313049785327483</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.005410600341770739</v>
+        <v>-0.01586092621184103</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0.01942785371398706</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003957358597462084</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.006441600379374399</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.09196611717072517</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03566684766176056</v>
+        <v>-0.01091532453554218</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.0088133769779491</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.03406210929083157</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.06172482926032956</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.02066768001248303</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.03085189748345858</v>
+        <v>-0.02243116688203153</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.007360996938176497</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.01817549979342658</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.002213029637288972</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.05177772366975269</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02283724861769676</v>
+        <v>0.03806377165361665</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01617967543743965</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.001920729104661352</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.003959429333528444</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.04608476734865451</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.0374096430588703</v>
+        <v>-0.01678107981471176</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.02932464660658785</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0.002475725036719349</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.02895810358671222</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.01291273892309817</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.004723152960740926</v>
+        <v>0.002548015659307606</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01035412295004452</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.002633181701617318</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.005434166144262983</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>0.0002742439718239334</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3562,133 +3562,133 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.0232670060576994</v>
+        <v>0.002813463887987625</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.03778164998470359</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.009015765725956708</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.03127709317907246</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.00674317946677412</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.001628175879580875</v>
+        <v>0.003412990607635664</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01256294856288534</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.002436368730697838</v>
+        <v>-0</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01183237814956919</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01818148957439986</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.04049668879378111</v>
+        <v>0.03462104369963299</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.005261321144447573</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01607451900690201</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.001477293727443226</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0</v>
+        <v>-0.01535655286999584</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.001974104895337174</v>
+        <v>0.02900346068868937</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.00758486525241465</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.003650456476233765</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01041522646765481</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.01762778729645223</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0230656840077191</v>
+        <v>-0.03745796629678676</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.01561058257182694</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.01139970240543427</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.01219326505336706</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.001556450046231629</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
@@ -3697,25 +3697,25 @@
         <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.008408026731574441</v>
+        <v>0.006587477693484734</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0.002211568715968637</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.002903717766638222</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.01423177080368809</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.00315756398501371</v>
       </c>
       <c r="EQ6" t="n">
         <v>-0</v>
@@ -3724,127 +3724,127 @@
         <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.008839544156089098</v>
+        <v>-0.02472388753054111</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0.04267164733977371</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.02972213188807681</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.00732287852888755</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.003129124356926306</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.00167066311144286</v>
+        <v>0.001769360760270176</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01738247886901063</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.001790102215341139</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.009374979637552605</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.0147336029835315</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.001605697724675915</v>
+        <v>-0.03902015357816686</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0.0009771488481506679</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0.005562092837789197</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.01503470227902928</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.008874519555491248</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01572990970117376</v>
+        <v>-0.01069195566399324</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.01587810262263613</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0.003230497151892749</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.00896848080134169</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02540016764850763</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.01077012974764084</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0.0208439074869788</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.02466969026262466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.3055051281798104</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1042211119624597</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1116883021831919</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002170514513884118</v>
+        <v>-0.01723889841360684</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1475122397816536</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1952144740968712</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.07243736981574402</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.09379131448642201</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05307484180708348</v>
+        <v>-0.07666383166682193</v>
       </c>
       <c r="O7" t="n">
         <v>-0</v>
@@ -3900,22 +3900,22 @@
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1326908913835659</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.09959327428864867</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.006769332620488686</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.03581302354132411</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003382510086325971</v>
+        <v>0.04110742599040455</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,28 +3924,28 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02038048703340591</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1070886115236627</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01286660856872447</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.07321152743590241</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.01485342192362313</v>
+        <v>0.01218465216093521</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
@@ -3954,157 +3954,157 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.05077257810739259</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.003188714218412055</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0180677016296732</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.03248717906005242</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03129710473502779</v>
+        <v>-0.07110965266880069</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.001188695407295212</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3430581252225197</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1408709228774453</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.03451458077763487</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01001919997760108</v>
+        <v>0.1690093676683826</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1068258363022494</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
         <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.02523415662384805</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.03515168435693462</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.06508004869044355</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.008489123539720323</v>
+        <v>-0.1151261604782218</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.0007725430569337741</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.1118626662566837</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.03933302659616558</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.0302280187398052</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05966986165303129</v>
+        <v>0.1249398021512294</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02720014207002432</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.1850696570730006</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.03055129492276856</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.02855050125360431</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01912419089896433</v>
+        <v>0.07515669989029142</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0781498303417322</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.06506705711726947</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03502079040924438</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.004552188446947648</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002902100635210859</v>
+        <v>-0.007528580151137815</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.02710382503521868</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.08100085893450382</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.01198357773828906</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.09776155780011604</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.02022894033850923</v>
+        <v>-0.08722633711743664</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.04455678209529953</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.04151230558519947</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02266401765034206</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.02242295272136002</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.008606438423679266</v>
+        <v>-0.007126341298994118</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.03074465668617637</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.07533445224762644</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03476331487598314</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.005398475260425361</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.008890106453689527</v>
+        <v>0.01310780207539635</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04418796592625227</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.06685729876964107</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.01002775879230059</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.05529298973819896</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01782745845353623</v>
+        <v>-0.004353121737628815</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
@@ -4224,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03291180122495864</v>
+        <v>-0</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.04779914913260182</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01533815811003324</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.02984062702619616</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.001858900607424611</v>
+        <v>-0.01906504490721115</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,25 +4248,25 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.008548537667301719</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.01173152376604417</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02344715544768528</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.05816418449850169</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03240337141792889</v>
+        <v>0.05037182108139945</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4275,25 +4275,25 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.02211651938419061</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06069537702206312</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.02148490288417921</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.05868586201298572</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.002694140322475578</v>
+        <v>0.006246277827096531</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4305,100 +4305,100 @@
         <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.05097970336502607</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.05295080906090214</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02795833602164408</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.01413776130150806</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.00828137309831178</v>
+        <v>0.009042033872069763</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04036947985258688</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.05551628506402375</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.03910572075341671</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.03055216413442334</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.03740255599001546</v>
+        <v>-0.0379126559725626</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.03890699595031956</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.0227710448248353</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0264566260122722</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.02548159704748207</v>
       </c>
       <c r="FT7" t="n">
-        <v>5.757488199002212e-05</v>
+        <v>0.04315243817070006</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.01013396062168574</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.02558426529789555</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01142669439599661</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.05279605994794003</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.03293856831592813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4990,16 +4990,16 @@
         <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2958635253427703</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04578455774110295</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>-0.05065203317901796</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02287766750976271</v>
+        <v>-0.06387709220629052</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
@@ -5011,103 +5011,103 @@
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09032681564900649</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1759191739902106</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03187854602581434</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>-0.03610126531222557</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03566273421361085</v>
+        <v>-0.06492244284472433</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09391005096432233</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.05176044398759182</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.005780525905475368</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.01296429472005033</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01190569148729936</v>
+        <v>0.04551309822433338</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02854188361486116</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.07432588379896124</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.02863185577255656</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.02266366387756534</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.02346567913383504</v>
+        <v>-0.001224480753280984</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.05054189641129368</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.01395847238878522</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.008120847517754886</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.01949573239197491</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.03961549760946168</v>
+        <v>-0.05075385585805868</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5119,52 +5119,52 @@
         <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.005654590361849305</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.271105559606499</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.05300378231887164</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.02716550267383306</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01838767702846307</v>
+        <v>0.05760547704500323</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.08135508204938063</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
         <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.03512090807806188</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.03106735687233962</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>-0.06167631033570297</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.003710520304458076</v>
+        <v>-0.07148968657602472</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5173,49 +5173,49 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.03236136583148752</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
         <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.09564790629196808</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.04594460967139674</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.0245342303393524</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.04491413252925552</v>
+        <v>0.09188926496735064</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.02564832996560417</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.1437524094562471</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.003987764574017534</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.02675378952602105</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0309348167208081</v>
+        <v>0.032394988200355</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
@@ -5227,22 +5227,22 @@
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.06220329282440881</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.05417774189132009</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.02478075115953447</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0.003497137250343219</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.002974873520259828</v>
+        <v>0.004207604125726442</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
@@ -5251,25 +5251,25 @@
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.01256995065936656</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.05053130129452643</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0137087822864411</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0.05117469884318675</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.0514486224351929</v>
+        <v>-0.06778434262476658</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5281,22 +5281,22 @@
         <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.04837178286644585</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
         <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.03443551391725058</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.02202484906660773</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0.01081715862233484</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01635640898770046</v>
+        <v>-0.0009356902221457714</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
@@ -5308,25 +5308,25 @@
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01499174431019116</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.008774767323521407</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.03764223973575277</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0</v>
+        <v>0.04934096845509875</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0008610551012175989</v>
+        <v>0.006959006331830516</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
         <v>-0</v>
@@ -5335,49 +5335,49 @@
         <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.008709498581358366</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.05481867880171114</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0.02798706751069321</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>0.01100052207401498</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0003519739325637928</v>
+        <v>-0.01960208134746441</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.03194777215666659</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.0009595700095552714</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0003517393802042508</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0.008848658067557432</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01423577596128195</v>
+        <v>-0.02072811443456564</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
@@ -5389,49 +5389,49 @@
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.01695879787607116</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.0292234452262134</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.01424069780330791</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>0.003249620077032518</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02687665899495733</v>
+        <v>0.05840912153465876</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
         <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.0142682138959967</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.03020410285874958</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0.03125721684407422</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0.01393164283821401</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.005938852416753994</v>
+        <v>0.02003740947964778</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
@@ -5440,79 +5440,79 @@
         <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.02971924827793344</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
         <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.0338859263719237</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.0234600411181086</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>0.004484970429474598</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0003245064849296729</v>
+        <v>0.009783622604776965</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.02341197719469256</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.01478795065603376</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.03208750909391712</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.0209912384877548</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.03283889703952723</v>
+        <v>-0.03018620395461101</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.03945011021373798</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.03382237480022781</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.02605630251782103</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0.01811828423835254</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.02383181488444893</v>
+        <v>0.005987955771124158</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
@@ -5524,34 +5524,34 @@
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0.008094864842699393</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.009702274871501488</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.008952458506409997</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.02519045122554731</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
         <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.02189983745246239</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,19 +5559,19 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2123120522139028</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1280802622509186</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08409865867366523</v>
+        <v>-0.01003017789952471</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>-0.1346410759887489</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5580,25 +5580,25 @@
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2409426886972434</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1612337751804058</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07196313467396506</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08279518606477965</v>
+        <v>-0.01876628031909322</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>-0.1088497807581321</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -5607,79 +5607,79 @@
         <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2103641527793509</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.01600919084274385</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.06556503039423021</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09351994276062238</v>
+        <v>-0.005310343219448102</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>-0.003379788542237069</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06066928545207196</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.02264195369145238</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02184322565938953</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01873218755388765</v>
+        <v>0.01307762758295742</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0.005140299831561942</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.0699626211388141</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.009900918702396332</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.04101874472641909</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01784170707831017</v>
+        <v>-0.01505912141223688</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>-0.03623837143679418</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -5688,25 +5688,25 @@
         <v>-0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.01972620057451651</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.1351779647404379</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.09727713932733895</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.03470148878725333</v>
+        <v>0.0007187053930370897</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.06373899951584794</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -5715,349 +5715,349 @@
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.133172438609637</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.06111520225086265</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.02008065953282048</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0308893087655386</v>
+        <v>-0.03887965167650223</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.05265046515155046</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.006572850688109229</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.05448905437334829</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.004841841754292408</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.02006716051876779</v>
+        <v>0.03628360773034428</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.006212551462032995</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.0547450970073789</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.06201278847516619</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.09666277619292749</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.001087205333932005</v>
+        <v>-0.009151302790195022</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.01674553713005551</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.1577854779294672</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.03539821625749956</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.03556133448304857</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.008300429939922416</v>
+        <v>-0.004182445543096932</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.02853942149898875</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02499714425874133</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.02078043351665047</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.03847433646747433</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.08627988284409105</v>
+        <v>0.01497758490643686</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.01727191803191523</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.04495794138559771</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02434196462158215</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.03926825490253025</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.00204447360740279</v>
+        <v>-0.003695217839293305</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.02659503796763685</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.0349682072834302</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.01164207611249794</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.02363818250069136</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.005744918388406212</v>
+        <v>0.002407800722476405</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.005262283053697603</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.003079506944227283</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.01925715766589115</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0.01830633207711977</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.007201333403723436</v>
+        <v>0.003330711197191196</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>-0.002264847878490785</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.07056513988019303</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.004988839601625447</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0.02049551349096694</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02473732353955947</v>
+        <v>-0.01747647285040631</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.007420395838533121</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.03837859170925832</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.01881876497743303</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0620976529330904</v>
+        <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.05483855078138935</v>
+        <v>0.009901489105061544</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0.01657321828088137</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.04642372285652856</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.01700140065530764</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.03729529830904908</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.03241198890287795</v>
+        <v>-0.0031276441474826</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.03223568669671888</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.05865883944403189</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.02616596934814044</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.02937932164936317</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.007799446957864415</v>
+        <v>0.00164303499632516</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>0.02947926088353579</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.04593940232466909</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.005738043375841332</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01179491785579967</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03258270052912145</v>
+        <v>-0.01844380813070224</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>0.01906306640265226</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6066,61 +6066,61 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.02279673258597837</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.008517532145450566</v>
       </c>
       <c r="FR10" t="n">
         <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.003697129002401621</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.00857082105235888</v>
+        <v>-0.02990831916245438</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0.001171938700577602</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0.002934165479346065</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.02106424956061611</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0242562678882697</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.02431711647482723</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.01098994298829903</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
